--- a/normatizacao.xlsx
+++ b/normatizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuscosme/SITE/Automaxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2887885A-4B13-F44A-ADC2-ECCBF7E35231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E10075-5E81-2642-815B-5F53846EF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,12 +262,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -365,71 +378,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4282B82A-0030-284A-8C55-C12184075E56}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="142" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,18 +795,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -889,272 +916,272 @@
     </row>
     <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="2" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="F19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="F23" s="2" t="s">
+      <c r="C23" s="28"/>
+      <c r="F23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="2" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="F27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="F31" s="2" t="s">
+      <c r="C31" s="25"/>
+      <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1163,17 +1190,17 @@
     <sortCondition ref="J5:J8"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G27:L27"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/normatizacao.xlsx
+++ b/normatizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuscosme/SITE/Automaxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E10075-5E81-2642-815B-5F53846EF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCA6FD-9251-6A4D-93D9-7F82CA3A2C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -262,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +280,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -378,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -423,7 +428,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,28 +440,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,7 +779,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,18 +799,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -919,19 +923,19 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -976,18 +980,18 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="F19" s="16" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="F19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1002,50 +1006,50 @@
       <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="F23" s="16" t="s">
+      <c r="C23" s="25"/>
+      <c r="F23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1054,22 +1058,22 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="F27" s="1" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="F27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1111,17 +1115,17 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="23"/>
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -1145,22 +1149,22 @@
     </row>
     <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1169,10 +1173,10 @@
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1190,11 +1194,6 @@
     <sortCondition ref="J5:J8"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="G19:H19"/>
@@ -1202,6 +1201,11 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/normatizacao.xlsx
+++ b/normatizacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuscosme/SITE/Automaxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCA6FD-9251-6A4D-93D9-7F82CA3A2C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84057148-F47A-D84E-A191-272007786BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1860" windowWidth="28240" windowHeight="17440" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20180" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Normatização - Base de Dados - Automaxx</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>idAtributos</t>
-  </si>
-  <si>
     <t>relAtributos</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>idAtributo</t>
   </si>
   <si>
-    <t>valor</t>
-  </si>
-  <si>
     <t>Equivalencia</t>
   </si>
   <si>
@@ -190,6 +184,18 @@
   </si>
   <si>
     <t>idModelo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>relCategoria_Atributo</t>
+  </si>
+  <si>
+    <t>TipoAtributo</t>
+  </si>
+  <si>
+    <t>idTipoAtributo</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -379,11 +385,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -398,9 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,12 +515,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -461,7 +534,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,41 +875,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4282B82A-0030-284A-8C55-C12184075E56}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -923,22 +1022,22 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -980,18 +1079,18 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="F19" s="27" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="36"/>
+      <c r="F19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="26"/>
+      <c r="G19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1003,92 +1102,89 @@
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="37"/>
+      <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="F23" s="27" t="s">
+      <c r="B23" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="F23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="26"/>
+      <c r="G23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="F27" s="27" t="s">
+      <c r="B27" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="F27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="G27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="B28" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -1098,16 +1194,16 @@
         <v>8</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="L28" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1115,97 +1211,137 @@
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="23"/>
+      <c r="B31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="32"/>
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="23"/>
+      <c r="G31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>43</v>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D32" s="33"/>
       <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="G32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="26"/>
-    </row>
-    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="B35" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>41</v>
+      <c r="F42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J5:J8">
     <sortCondition ref="J5:J8"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
+  <mergeCells count="10">
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/normatizacao.xlsx
+++ b/normatizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuscosme/SITE/Automaxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84057148-F47A-D84E-A191-272007786BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42610E23-FA8D-4B47-A4B5-D4B9EE496405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20180" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="28" t="s">

--- a/normatizacao.xlsx
+++ b/normatizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuscosme/SITE/Automaxx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42610E23-FA8D-4B47-A4B5-D4B9EE496405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B273292-E49B-7C4C-A8A5-AB95EBCAAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20180" xr2:uid="{9A86648F-0A0C-D04A-AB03-89C04E372ACE}"/>
   </bookViews>
@@ -519,30 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,6 +536,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +878,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:G41"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,18 +898,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -1019,22 +1019,22 @@
     </row>
     <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1079,18 +1079,18 @@
       <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="28"/>
       <c r="F19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1102,7 +1102,7 @@
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="29"/>
       <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1114,24 +1114,24 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="38"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="36"/>
       <c r="F23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1140,7 +1140,7 @@
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="23" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="15" t="s">
@@ -1158,21 +1158,21 @@
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="34"/>
       <c r="F27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
@@ -1215,14 +1215,14 @@
         <v>31</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="24"/>
       <c r="F31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -1234,7 +1234,7 @@
       <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="25"/>
       <c r="F32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1250,10 +1250,10 @@
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="27"/>
     </row>
     <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1262,7 +1262,7 @@
       <c r="B36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="E41" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E42" s="18" t="s">
